--- a/templates/Programmatic Budget Flighting Template.xlsx
+++ b/templates/Programmatic Budget Flighting Template.xlsx
@@ -1007,958 +1007,341 @@
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="30">
-        <v>45832.0</v>
-      </c>
-      <c r="C13" s="31" t="str">
-        <f t="shared" ref="C13:C35" si="1">IFERROR(IF(EOMONTH(B13,0)&gt;$F$4,$F$4,EOMONTH(B13,0)),"")</f>
-        <v/>
-      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="32"/>
-      <c r="E13" s="33" t="str">
-        <f t="shared" ref="E13:E35" si="2">IFERROR(D13/$C$6*1000,"")</f>
-        <v/>
-      </c>
-      <c r="F13" s="34">
-        <f t="shared" ref="F13:F52" si="3">IFERROR(D13*(1.01),"")</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="35" t="str">
-        <f t="shared" ref="G13:G35" si="4">IFERROR(F13/$C$6*1000,"")</f>
-        <v/>
-      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="36"/>
       <c r="I13" s="31"/>
       <c r="J13" s="34"/>
-      <c r="K13" s="33" t="str">
-        <f t="shared" ref="K13:K35" si="5">IFERROR(J13/$C$6*1000,"")</f>
-        <v/>
-      </c>
-      <c r="L13" s="34">
-        <f t="shared" ref="L13:L52" si="6">IFERROR(J13*(1.01),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="35" t="str">
-        <f t="shared" ref="M13:M35" si="7">IFERROR(L13/$C$6*1000,"")</f>
-        <v/>
-      </c>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="35"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="37" t="str">
-        <f t="shared" ref="B14:B35" si="8">IFERROR(IF(EOMONTH(B13,0)+1&gt;$F$4,"",EOMONTH(B13,0)+1),"")</f>
-        <v/>
-      </c>
-      <c r="C14" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F14" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="37"/>
       <c r="I14" s="38"/>
       <c r="J14" s="39"/>
-      <c r="K14" s="40" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L14" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="41" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K14" s="40"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="41"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="36" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C15" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F15" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="36"/>
       <c r="I15" s="31"/>
       <c r="J15" s="34"/>
-      <c r="K15" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L15" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="35" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="35"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C16" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="39"/>
-      <c r="E16" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="37"/>
       <c r="I16" s="38"/>
       <c r="J16" s="39"/>
-      <c r="K16" s="40" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L16" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="41" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K16" s="40"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="41"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="36" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C17" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F17" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="36"/>
       <c r="I17" s="31"/>
       <c r="J17" s="34"/>
-      <c r="K17" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L17" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="35" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="35"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C18" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F18" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="37"/>
       <c r="I18" s="38"/>
       <c r="J18" s="39"/>
-      <c r="K18" s="40" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L18" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="41" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K18" s="40"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="41"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="36" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C19" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F19" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="36"/>
       <c r="I19" s="31"/>
       <c r="J19" s="34"/>
-      <c r="K19" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L19" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="35" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="35"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C20" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F20" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="41"/>
       <c r="H20" s="37"/>
       <c r="I20" s="38"/>
       <c r="J20" s="39"/>
-      <c r="K20" s="40" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L20" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="41" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K20" s="40"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="41"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="36" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C21" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F21" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="36"/>
       <c r="I21" s="31"/>
       <c r="J21" s="34"/>
-      <c r="K21" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L21" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="35" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K21" s="33"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="35"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="B22" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C22" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D22" s="39" t="str">
-        <f t="shared" ref="D22:D35" si="9">IFERROR(IF(B22="","",($C$4-$D$13)/COUNT($B$14:$B$52)),"")</f>
-        <v/>
-      </c>
-      <c r="E22" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F22" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="37"/>
       <c r="I22" s="38"/>
       <c r="J22" s="39"/>
-      <c r="K22" s="40" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L22" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="41" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K22" s="40"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="41"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="36" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C23" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D23" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E23" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F23" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="36"/>
       <c r="I23" s="31"/>
       <c r="J23" s="34"/>
-      <c r="K23" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L23" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="35" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K23" s="33"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="B24" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C24" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D24" s="39" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E24" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F24" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="41"/>
       <c r="H24" s="37"/>
       <c r="I24" s="38"/>
       <c r="J24" s="39"/>
-      <c r="K24" s="40" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L24" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="41" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K24" s="40"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="41"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="B25" s="36" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C25" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D25" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E25" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F25" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="36"/>
       <c r="I25" s="31"/>
       <c r="J25" s="34"/>
-      <c r="K25" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L25" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="35" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K25" s="33"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="35"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="B26" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C26" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D26" s="39" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E26" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F26" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="41"/>
       <c r="H26" s="37"/>
       <c r="I26" s="38"/>
       <c r="J26" s="39"/>
-      <c r="K26" s="40" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L26" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="41" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K26" s="40"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="41"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="B27" s="36" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C27" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D27" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E27" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F27" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
       <c r="H27" s="36"/>
       <c r="I27" s="31"/>
       <c r="J27" s="34"/>
-      <c r="K27" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L27" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="35" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K27" s="33"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="35"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="B28" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C28" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D28" s="39" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E28" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F28" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="41"/>
       <c r="H28" s="37"/>
       <c r="I28" s="38"/>
       <c r="J28" s="39"/>
-      <c r="K28" s="40" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L28" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="41" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K28" s="40"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="41"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="B29" s="36" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C29" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D29" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E29" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F29" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="35"/>
       <c r="H29" s="36"/>
       <c r="I29" s="31"/>
       <c r="J29" s="34"/>
-      <c r="K29" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L29" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="35" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K29" s="33"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="35"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="B30" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C30" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D30" s="39" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E30" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F30" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="B30" s="37"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="41"/>
       <c r="H30" s="37"/>
       <c r="I30" s="38"/>
       <c r="J30" s="39"/>
-      <c r="K30" s="40" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L30" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="41" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K30" s="40"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="41"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="B31" s="36" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C31" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D31" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F31" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="35"/>
       <c r="H31" s="36"/>
       <c r="I31" s="31"/>
       <c r="J31" s="34"/>
-      <c r="K31" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L31" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="35" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K31" s="33"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="35"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="B32" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C32" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D32" s="39" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E32" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F32" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="41"/>
       <c r="H32" s="37"/>
       <c r="I32" s="38"/>
       <c r="J32" s="39"/>
-      <c r="K32" s="40" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L32" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="41" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K32" s="40"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="41"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="B33" s="36" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C33" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D33" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E33" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F33" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="36"/>
       <c r="I33" s="31"/>
       <c r="J33" s="34"/>
-      <c r="K33" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L33" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="35" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K33" s="33"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="35"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="B34" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C34" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D34" s="39" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E34" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F34" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="37"/>
       <c r="I34" s="38"/>
       <c r="J34" s="39"/>
-      <c r="K34" s="40" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L34" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="41" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K34" s="40"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="41"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="B35" s="36" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C35" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D35" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E35" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F35" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35"/>
       <c r="H35" s="36"/>
       <c r="I35" s="31"/>
       <c r="J35" s="34"/>
-      <c r="K35" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L35" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="35" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="K35" s="33"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="35"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="42"/>
-      <c r="B36" s="43" t="str">
-        <f t="shared" ref="B36:B51" si="10">IFERROR(IF(EOMONTH(B35,0)+1&gt;$F$4,"",EOMONTH(B35,0)+1),"")</f>
-        <v/>
-      </c>
-      <c r="C36" s="44" t="str">
-        <f t="shared" ref="C36:C51" si="11">IFERROR(IF(EOMONTH(B36,0)&gt;$F$4,$F$4,EOMONTH(B36,0)),"")</f>
-        <v/>
-      </c>
+      <c r="B36" s="43"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="45"/>
-      <c r="E36" s="46" t="str">
-        <f t="shared" ref="E36:E51" si="12">IFERROR(D36/$C$6*1000,"")</f>
-        <v/>
-      </c>
-      <c r="F36" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="48" t="str">
-        <f t="shared" ref="G36:G51" si="13">IFERROR(F36/$C$6*1000,"")</f>
-        <v/>
-      </c>
+      <c r="E36" s="46"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="48"/>
       <c r="H36" s="43"/>
       <c r="I36" s="44"/>
       <c r="J36" s="45"/>
-      <c r="K36" s="46" t="str">
-        <f t="shared" ref="K36:K51" si="14">IFERROR(J36/$C$6*1000,"")</f>
-        <v/>
-      </c>
-      <c r="L36" s="47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="48" t="str">
-        <f t="shared" ref="M36:M51" si="15">IFERROR(L36/$C$6*1000,"")</f>
-        <v/>
-      </c>
+      <c r="K36" s="46"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="48"/>
       <c r="N36" s="42"/>
       <c r="O36" s="42"/>
       <c r="P36" s="42"/>
@@ -1975,42 +1358,18 @@
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="42"/>
-      <c r="B37" s="49" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C37" s="50" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="51"/>
-      <c r="E37" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F37" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="54" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="54"/>
       <c r="H37" s="49"/>
       <c r="I37" s="50"/>
       <c r="J37" s="51"/>
-      <c r="K37" s="52" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L37" s="53">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="54" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
+      <c r="K37" s="52"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="54"/>
       <c r="N37" s="42"/>
       <c r="O37" s="42"/>
       <c r="P37" s="42"/>
@@ -2027,45 +1386,18 @@
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="42"/>
-      <c r="B38" s="43" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C38" s="44" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="D38" s="55" t="str">
-        <f t="shared" ref="D38:D51" si="16">IFERROR(IF(B38="","",($C$4-$D$13)/COUNT($B$14:$B$36)),"")</f>
-        <v/>
-      </c>
-      <c r="E38" s="46" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F38" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="48" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
+      <c r="B38" s="43"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="48"/>
       <c r="H38" s="43"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45"/>
-      <c r="K38" s="46" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L38" s="47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="48" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
+      <c r="K38" s="46"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="48"/>
       <c r="N38" s="42"/>
       <c r="O38" s="42"/>
       <c r="P38" s="42"/>
@@ -2082,45 +1414,18 @@
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="42"/>
-      <c r="B39" s="49" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C39" s="50" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="D39" s="56" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="E39" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F39" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="54" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="54"/>
       <c r="H39" s="49"/>
       <c r="I39" s="50"/>
       <c r="J39" s="51"/>
-      <c r="K39" s="52" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L39" s="53">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="54" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
+      <c r="K39" s="52"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="42"/>
       <c r="O39" s="42"/>
       <c r="P39" s="42"/>
@@ -2137,45 +1442,18 @@
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="42"/>
-      <c r="B40" s="43" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C40" s="44" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="D40" s="55" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="E40" s="46" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F40" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="48" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
+      <c r="B40" s="43"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="48"/>
       <c r="H40" s="43"/>
       <c r="I40" s="44"/>
       <c r="J40" s="45"/>
-      <c r="K40" s="46" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L40" s="47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="48" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
+      <c r="K40" s="46"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="48"/>
       <c r="N40" s="42"/>
       <c r="O40" s="42"/>
       <c r="P40" s="42"/>
@@ -2192,45 +1470,18 @@
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="42"/>
-      <c r="B41" s="49" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C41" s="50" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="D41" s="56" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="E41" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F41" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="54" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
+      <c r="B41" s="49"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="54"/>
       <c r="H41" s="49"/>
       <c r="I41" s="50"/>
       <c r="J41" s="51"/>
-      <c r="K41" s="52" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L41" s="53">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="54" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
+      <c r="K41" s="52"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="54"/>
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
@@ -2247,45 +1498,18 @@
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="42"/>
-      <c r="B42" s="43" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C42" s="44" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="D42" s="55" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="E42" s="46" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F42" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="48" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
+      <c r="B42" s="43"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="48"/>
       <c r="H42" s="43"/>
       <c r="I42" s="44"/>
       <c r="J42" s="45"/>
-      <c r="K42" s="46" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L42" s="47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="48" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
+      <c r="K42" s="46"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="48"/>
       <c r="N42" s="42"/>
       <c r="O42" s="42"/>
       <c r="P42" s="42"/>
@@ -2302,45 +1526,18 @@
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="42"/>
-      <c r="B43" s="49" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C43" s="50" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="D43" s="56" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="E43" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F43" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="54" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="54"/>
       <c r="H43" s="49"/>
       <c r="I43" s="50"/>
       <c r="J43" s="51"/>
-      <c r="K43" s="52" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L43" s="53">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="54" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
+      <c r="K43" s="52"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="54"/>
       <c r="N43" s="42"/>
       <c r="O43" s="42"/>
       <c r="P43" s="42"/>
@@ -2357,45 +1554,18 @@
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="42"/>
-      <c r="B44" s="43" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C44" s="44" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="D44" s="55" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="E44" s="46" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F44" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="48" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
+      <c r="B44" s="43"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="48"/>
       <c r="H44" s="43"/>
       <c r="I44" s="44"/>
       <c r="J44" s="45"/>
-      <c r="K44" s="46" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L44" s="47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="48" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
+      <c r="K44" s="46"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="48"/>
       <c r="N44" s="42"/>
       <c r="O44" s="42"/>
       <c r="P44" s="42"/>
@@ -2412,45 +1582,18 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="42"/>
-      <c r="B45" s="49" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C45" s="50" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="D45" s="56" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="E45" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F45" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="54" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
+      <c r="B45" s="49"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="54"/>
       <c r="H45" s="49"/>
       <c r="I45" s="50"/>
       <c r="J45" s="51"/>
-      <c r="K45" s="52" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L45" s="53">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="54" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
+      <c r="K45" s="52"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="54"/>
       <c r="N45" s="42"/>
       <c r="O45" s="42"/>
       <c r="P45" s="42"/>
@@ -2467,45 +1610,18 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="42"/>
-      <c r="B46" s="43" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C46" s="44" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="D46" s="55" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="E46" s="46" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F46" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="48" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
+      <c r="B46" s="43"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="48"/>
       <c r="H46" s="43"/>
       <c r="I46" s="44"/>
       <c r="J46" s="45"/>
-      <c r="K46" s="46" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L46" s="47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="48" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
+      <c r="K46" s="46"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="48"/>
       <c r="N46" s="42"/>
       <c r="O46" s="42"/>
       <c r="P46" s="42"/>
@@ -2522,45 +1638,18 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="42"/>
-      <c r="B47" s="49" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C47" s="50" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="D47" s="56" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="E47" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F47" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="54" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
+      <c r="B47" s="49"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="54"/>
       <c r="H47" s="49"/>
       <c r="I47" s="50"/>
       <c r="J47" s="51"/>
-      <c r="K47" s="52" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L47" s="53">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="54" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
+      <c r="K47" s="52"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="54"/>
       <c r="N47" s="42"/>
       <c r="O47" s="42"/>
       <c r="P47" s="42"/>
@@ -2577,45 +1666,18 @@
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="42"/>
-      <c r="B48" s="43" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C48" s="44" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="D48" s="55" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="E48" s="46" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F48" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="48" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
+      <c r="B48" s="43"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="48"/>
       <c r="H48" s="43"/>
       <c r="I48" s="44"/>
       <c r="J48" s="45"/>
-      <c r="K48" s="46" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L48" s="47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="48" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
+      <c r="K48" s="46"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="48"/>
       <c r="N48" s="42"/>
       <c r="O48" s="42"/>
       <c r="P48" s="42"/>
@@ -2632,45 +1694,18 @@
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="42"/>
-      <c r="B49" s="49" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C49" s="50" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="D49" s="56" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="E49" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F49" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="54" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
+      <c r="B49" s="49"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="54"/>
       <c r="H49" s="49"/>
       <c r="I49" s="50"/>
       <c r="J49" s="51"/>
-      <c r="K49" s="52" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L49" s="53">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="54" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
+      <c r="K49" s="52"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="54"/>
       <c r="N49" s="42"/>
       <c r="O49" s="42"/>
       <c r="P49" s="42"/>
@@ -2687,45 +1722,18 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="42"/>
-      <c r="B50" s="43" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C50" s="44" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="D50" s="55" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="E50" s="46" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F50" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="48" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
+      <c r="B50" s="43"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="48"/>
       <c r="H50" s="43"/>
       <c r="I50" s="44"/>
       <c r="J50" s="45"/>
-      <c r="K50" s="46" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L50" s="47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="48" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
+      <c r="K50" s="46"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="48"/>
       <c r="N50" s="42"/>
       <c r="O50" s="42"/>
       <c r="P50" s="42"/>
@@ -2742,45 +1750,18 @@
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="42"/>
-      <c r="B51" s="49" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C51" s="50" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="D51" s="56" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="E51" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F51" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="54" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
+      <c r="B51" s="49"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="54"/>
       <c r="H51" s="49"/>
       <c r="I51" s="50"/>
       <c r="J51" s="51"/>
-      <c r="K51" s="52" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L51" s="53">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="54" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
+      <c r="K51" s="52"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="54"/>
       <c r="N51" s="42"/>
       <c r="O51" s="42"/>
       <c r="P51" s="42"/>
@@ -2796,45 +1777,18 @@
       <c r="Z51" s="42"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="B52" s="57" t="str">
-        <f>IFERROR(IF(EOMONTH(B35,0)+1&gt;$F$4,"",EOMONTH(B35,0)+1),"")</f>
-        <v/>
-      </c>
-      <c r="C52" s="58" t="str">
-        <f>IFERROR(IF(EOMONTH(B52,0)&gt;$F$4,$F$4,EOMONTH(B52,0)),"")</f>
-        <v/>
-      </c>
-      <c r="D52" s="59" t="str">
-        <f>IFERROR(IF(B52="","",($C$4-$D$13)/COUNT($B$14:$B$52)),"")</f>
-        <v/>
-      </c>
-      <c r="E52" s="60" t="str">
-        <f>IFERROR(D52/$C$6*1000,"")</f>
-        <v/>
-      </c>
-      <c r="F52" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="61" t="str">
-        <f>IFERROR(F52/$C$6*1000,"")</f>
-        <v/>
-      </c>
+      <c r="B52" s="57"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="61"/>
       <c r="H52" s="57"/>
       <c r="I52" s="58"/>
       <c r="J52" s="59"/>
-      <c r="K52" s="60" t="str">
-        <f>IFERROR(J52/$C$6*1000,"")</f>
-        <v/>
-      </c>
-      <c r="L52" s="59">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="61" t="str">
-        <f>IFERROR(L52/$C$6*1000,"")</f>
-        <v/>
-      </c>
+      <c r="K52" s="60"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="61"/>
     </row>
     <row r="53" ht="14.25" customHeight="1"/>
     <row r="54" ht="14.25" customHeight="1"/>

--- a/templates/Programmatic Budget Flighting Template.xlsx
+++ b/templates/Programmatic Budget Flighting Template.xlsx
@@ -1,17 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29325"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ECAABCC-9911-4738-B84E-F65876F230EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="PRG Standard Template" sheetId="1" r:id="rId4"/>
+    <sheet name="PRG Standard Template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>For multiple LI orders label excel tabs appropriately</t>
   </si>
@@ -31,7 +51,7 @@
     <t>Even Monthly (Y/N)</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Y</t>
   </si>
   <si>
     <t>CPM</t>
@@ -41,9 +61,6 @@
   </si>
   <si>
     <t>Monthly Budget Flighting</t>
-  </si>
-  <si>
-    <t>Custom Budget Flighting</t>
   </si>
   <si>
     <t>Flight Check:</t>
@@ -73,60 +90,57 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
-      <sz val="12.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
-      <color rgb="FFFF0000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -136,7 +150,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -157,21 +171,13 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
-    <border/>
+  <borders count="19">
     <border>
       <left/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -186,155 +192,125 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
-      <top/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <top style="medium">
+      <left/>
+      <right/>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -343,6 +319,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -351,6 +328,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -361,6 +339,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -369,6 +348,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -379,158 +359,152 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="59">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="8" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="20" fillId="3" fontId="8" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="21" fillId="0" fontId="8" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="19" fillId="0" fontId="8" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="22" fillId="4" fontId="8" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="20" fillId="4" fontId="8" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="20" fillId="4" fontId="8" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="20" fillId="4" fontId="8" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="23" fillId="4" fontId="8" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="22" fillId="4" fontId="9" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="20" fillId="4" fontId="9" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="20" fillId="4" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="20" fillId="4" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="20" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="23" fillId="4" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="9" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="20" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="24" fillId="4" fontId="8" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="25" fillId="4" fontId="8" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="25" fillId="4" fontId="8" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="25" fillId="4" fontId="8" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="26" fillId="4" fontId="8" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <color rgb="FF385623"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
       <font>
@@ -542,31 +516,85 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color rgb="FF385623"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE7E6E6"/>
+          <bgColor rgb="FFE7E6E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="1">
+    <tableStyle name="SEM + Social Template-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -756,1052 +784,720 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T1016"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.14"/>
-    <col customWidth="1" min="2" max="2" width="17.86"/>
-    <col customWidth="1" min="3" max="3" width="16.0"/>
-    <col customWidth="1" min="4" max="4" width="13.86"/>
-    <col customWidth="1" min="5" max="5" width="19.43"/>
-    <col customWidth="1" min="6" max="6" width="15.14"/>
-    <col customWidth="1" min="7" max="7" width="11.86"/>
-    <col customWidth="1" min="8" max="8" width="15.57"/>
-    <col customWidth="1" min="9" max="12" width="12.86"/>
-    <col customWidth="1" min="13" max="13" width="14.86"/>
-    <col customWidth="1" min="14" max="26" width="8.71"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="20" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1"/>
-    <row r="3" ht="18.0" customHeight="1">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:7" ht="18" customHeight="1">
+      <c r="B3" s="1"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" ht="18.0" customHeight="1">
-      <c r="B4" s="6" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" ht="18.0" customHeight="1">
-      <c r="B5" s="6" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" ht="18.0" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1">
+      <c r="B6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14" t="str">
+      <c r="C6" s="43" t="e">
         <f>C4/C5*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" ht="18.0" customHeight="1">
-      <c r="B7" s="4"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="4"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="16" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1">
+      <c r="B7" s="1"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1">
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" customHeight="1">
+      <c r="B9" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
-    </row>
-    <row r="10" ht="33.75" customHeight="1">
-      <c r="B10" s="19" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+    </row>
+    <row r="10" spans="1:7" ht="33.75" customHeight="1">
+      <c r="B10" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="19" t="s">
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="22" t="s">
+      <c r="C11" s="8" t="str">
+        <f>IF($F$5="N","",IF(B13=$F$3,IF(MAX(C13:C60)=$F$4,"Good","Wrong Date"),"Wrong Date"))</f>
+        <v>Good</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="23" t="str">
-        <f>IF($F$5="N","",IF(B13=$F$3,IF(MAX(C13:C60)=$F$4,"Good","Wrong Date"),"Wrong Date"))</f>
-        <v/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="10" t="str">
+        <f>IF($F$5="N","",IF(SUM(D13:D64)=$C$4,"Good","INCORRECT"))</f>
+        <v>Good</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1">
+      <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26" t="str">
-        <f>IF($F$5="N","",IF(SUM(D13:D64)=$C$4,"Good","INCORRECT"))</f>
-        <v/>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="23" t="str">
-        <f>IF($F$5="Y","",IF(H13=$F$3,IF(MAX(I13:I60)=$F$4,"Good","Wrong Date"),"Wrong Date"))</f>
-        <v>Good</v>
-      </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26" t="str">
-        <f>IF($F$5="Y","",IF(SUM(J13:J64)=$C$4,"Good","INCORRECT"))</f>
-        <v>Good</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="27" t="s">
+      <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="D12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="E12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="F12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="G12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="41"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="36"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="41"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="36"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="35"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="41"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="36"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="35"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="41"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="36"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="35"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="41"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="36"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="35"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="41"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="B25" s="36"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="35"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="41"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="B27" s="36"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="35"/>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="41"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="B29" s="36"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="35"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="41"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="B31" s="36"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="35"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="B32" s="37"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="41"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="B33" s="36"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="35"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="41"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="B35" s="36"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="35"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="42"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="42"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="42"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="42"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="42"/>
-      <c r="Y38" s="42"/>
-      <c r="Z38" s="42"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="42"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="42"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="42"/>
-      <c r="Y39" s="42"/>
-      <c r="Z39" s="42"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="42"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="42"/>
-      <c r="Z40" s="42"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="42"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="42"/>
-      <c r="T41" s="42"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="42"/>
-      <c r="W41" s="42"/>
-      <c r="X41" s="42"/>
-      <c r="Y41" s="42"/>
-      <c r="Z41" s="42"/>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="42"/>
-      <c r="Y42" s="42"/>
-      <c r="Z42" s="42"/>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="42"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="42"/>
-      <c r="S43" s="42"/>
-      <c r="T43" s="42"/>
-      <c r="U43" s="42"/>
-      <c r="V43" s="42"/>
-      <c r="W43" s="42"/>
-      <c r="X43" s="42"/>
-      <c r="Y43" s="42"/>
-      <c r="Z43" s="42"/>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="42"/>
-      <c r="T44" s="42"/>
-      <c r="U44" s="42"/>
-      <c r="V44" s="42"/>
-      <c r="W44" s="42"/>
-      <c r="X44" s="42"/>
-      <c r="Y44" s="42"/>
-      <c r="Z44" s="42"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="42"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="42"/>
-      <c r="R45" s="42"/>
-      <c r="S45" s="42"/>
-      <c r="T45" s="42"/>
-      <c r="U45" s="42"/>
-      <c r="V45" s="42"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="42"/>
-      <c r="Y45" s="42"/>
-      <c r="Z45" s="42"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="42"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="42"/>
-      <c r="S46" s="42"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="42"/>
-      <c r="V46" s="42"/>
-      <c r="W46" s="42"/>
-      <c r="X46" s="42"/>
-      <c r="Y46" s="42"/>
-      <c r="Z46" s="42"/>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="42"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="42"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="42"/>
-      <c r="W47" s="42"/>
-      <c r="X47" s="42"/>
-      <c r="Y47" s="42"/>
-      <c r="Z47" s="42"/>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="42"/>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="42"/>
-      <c r="R48" s="42"/>
-      <c r="S48" s="42"/>
-      <c r="T48" s="42"/>
-      <c r="U48" s="42"/>
-      <c r="V48" s="42"/>
-      <c r="W48" s="42"/>
-      <c r="X48" s="42"/>
-      <c r="Y48" s="42"/>
-      <c r="Z48" s="42"/>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="42"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="42"/>
-      <c r="Q49" s="42"/>
-      <c r="R49" s="42"/>
-      <c r="S49" s="42"/>
-      <c r="T49" s="42"/>
-      <c r="U49" s="42"/>
-      <c r="V49" s="42"/>
-      <c r="W49" s="42"/>
-      <c r="X49" s="42"/>
-      <c r="Y49" s="42"/>
-      <c r="Z49" s="42"/>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="42"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="42"/>
-      <c r="Q50" s="42"/>
-      <c r="R50" s="42"/>
-      <c r="S50" s="42"/>
-      <c r="T50" s="42"/>
-      <c r="U50" s="42"/>
-      <c r="V50" s="42"/>
-      <c r="W50" s="42"/>
-      <c r="X50" s="42"/>
-      <c r="Y50" s="42"/>
-      <c r="Z50" s="42"/>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="42"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="42"/>
-      <c r="P51" s="42"/>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="42"/>
-      <c r="S51" s="42"/>
-      <c r="T51" s="42"/>
-      <c r="U51" s="42"/>
-      <c r="V51" s="42"/>
-      <c r="W51" s="42"/>
-      <c r="X51" s="42"/>
-      <c r="Y51" s="42"/>
-      <c r="Z51" s="42"/>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="B52" s="57"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="61"/>
-    </row>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" customHeight="1">
+      <c r="B13" s="44"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="45"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" customHeight="1">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" customHeight="1">
+      <c r="B15" s="44"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="45"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" customHeight="1">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B17" s="44"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="45"/>
+    </row>
+    <row r="18" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B19" s="44"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="45"/>
+    </row>
+    <row r="20" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B21" s="44"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="45"/>
+    </row>
+    <row r="22" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B23" s="44"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="45"/>
+    </row>
+    <row r="24" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B25" s="44"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="45"/>
+    </row>
+    <row r="26" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B27" s="44"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="45"/>
+    </row>
+    <row r="28" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B29" s="44"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="45"/>
+    </row>
+    <row r="30" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B31" s="44"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="45"/>
+    </row>
+    <row r="32" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="1:20" ht="14.25" customHeight="1">
+      <c r="B33" s="44"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="45"/>
+    </row>
+    <row r="34" spans="1:20" ht="14.25" customHeight="1">
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:20" ht="14.25" customHeight="1">
+      <c r="B35" s="44"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="45"/>
+    </row>
+    <row r="36" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+    </row>
+    <row r="37" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A37" s="23"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+    </row>
+    <row r="38" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+    </row>
+    <row r="39" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A39" s="23"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+    </row>
+    <row r="40" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+    </row>
+    <row r="41" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A41" s="23"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+    </row>
+    <row r="42" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A42" s="23"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+    </row>
+    <row r="43" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A43" s="23"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+    </row>
+    <row r="44" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
+    </row>
+    <row r="45" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A45" s="23"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
+    </row>
+    <row r="46" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A46" s="23"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
+    </row>
+    <row r="47" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A47" s="23"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+    </row>
+    <row r="48" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
+    </row>
+    <row r="49" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A49" s="23"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+    </row>
+    <row r="50" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A50" s="23"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23"/>
+    </row>
+    <row r="51" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A51" s="23"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+    </row>
+    <row r="52" spans="1:20" ht="14.25" customHeight="1">
+      <c r="B52" s="35"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="39"/>
+    </row>
+    <row r="53" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="54" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="55" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="56" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="57" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="58" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="59" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="60" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="61" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="62" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="63" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="64" spans="1:20" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>
@@ -2755,27 +2451,25 @@
     <row r="1015" ht="14.25" customHeight="1"/>
     <row r="1016" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="INCORRECT">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="INCORRECT">
       <formula>NOT(ISERROR(SEARCH(("INCORRECT"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Good"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="wrong">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="wrong">
       <formula>NOT(ISERROR(SEARCH(("wrong"),(C11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2784,34 +2478,12 @@
       <formula>NOT(ISERROR(SEARCH(("good"),(C11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:M10">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>$J$12="Y"</formula>
+  <conditionalFormatting sqref="B10:G10">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11">
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="INCORRECT">
-      <formula>NOT(ISERROR(SEARCH(("INCORRECT"),(M11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
-      <formula>"Good"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="wrong">
-      <formula>NOT(ISERROR(SEARCH(("wrong"),(I11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="good">
-      <formula>NOT(ISERROR(SEARCH(("good"),(I11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>